--- a/Hack/Hack/Frontend/Statistics.xlsx
+++ b/Hack/Hack/Frontend/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Ngo\Documents\hack\GTHacklytics\Hack\Hack\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6847DC-B6D5-466A-B1B6-41FA3C023888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FFC750-3EF7-4969-90E0-12E53E82D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D7A62185-9D30-4A33-ADA6-345F11135AAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nutrition Components</t>
   </si>
@@ -113,16 +113,10 @@
     <t>Fruits</t>
   </si>
   <si>
-    <t>Stats 2 months</t>
-  </si>
-  <si>
     <t>Stats month</t>
   </si>
   <si>
     <t>Pi month</t>
-  </si>
-  <si>
-    <t>Pi 2 months</t>
   </si>
 </sst>
 </file>
@@ -474,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257EFBB1-917A-4643-9CC8-28E6160D3AFF}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,27 +482,21 @@
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,7 +504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -524,7 +512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -532,7 +520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -540,57 +528,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
